--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C054554-7D35-4904-84E0-678EED2F9D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF0B6E-2D1F-453A-9FA0-DB8210916A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="306">
   <si>
     <t>Status</t>
   </si>
@@ -960,12 +960,21 @@
   <si>
     <t xml:space="preserve">Practice Random Questions </t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Again</t>
+  </si>
+  <si>
+    <t>Again ()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1073,8 +1082,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1110,16 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1097,11 +1130,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,9 +1163,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1349,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1370,10 +1416,10 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="12.75">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1438,9 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75">
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="H4" s="3"/>
@@ -1405,6 +1452,9 @@
       <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="C5" s="20" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16">
@@ -1413,6 +1463,9 @@
       <c r="B6" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C6" s="19" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16">
@@ -1421,6 +1474,9 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="16">
@@ -1429,6 +1485,9 @@
       <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C8" s="19" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="16">
@@ -1437,6 +1496,9 @@
       <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1447,6 +1509,9 @@
       </c>
       <c r="B10" s="7" t="s">
         <v>134</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>6</v>
@@ -1459,6 +1524,7 @@
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="18"/>
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1470,6 +1536,7 @@
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="16">
@@ -1478,6 +1545,7 @@
       <c r="B13" s="7" t="s">
         <v>287</v>
       </c>
+      <c r="C13" s="18"/>
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1489,6 +1557,7 @@
       <c r="B14" s="7" t="s">
         <v>270</v>
       </c>
+      <c r="C14" s="18"/>
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1500,6 +1569,7 @@
       <c r="B15" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="C15" s="18"/>
       <c r="F15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1511,6 +1581,7 @@
       <c r="B16" s="13" t="s">
         <v>150</v>
       </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="16">
@@ -1519,6 +1590,7 @@
       <c r="B17" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16">
@@ -1527,6 +1599,7 @@
       <c r="B18" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="16">
@@ -1535,6 +1608,7 @@
       <c r="B19" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1549,6 +1623,7 @@
       <c r="B20" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="C20" s="18"/>
       <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1560,6 +1635,7 @@
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1574,6 +1650,7 @@
       <c r="B22" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="C22" s="18"/>
       <c r="G22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1585,6 +1662,7 @@
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C23" s="18"/>
       <c r="F23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1596,6 +1674,7 @@
       <c r="B24" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="16">
@@ -1604,6 +1683,7 @@
       <c r="B25" s="7" t="s">
         <v>176</v>
       </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
@@ -1621,6 +1701,7 @@
       <c r="B26" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="C26" s="18"/>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1632,6 +1713,7 @@
       <c r="B27" s="4" t="s">
         <v>222</v>
       </c>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="16">
@@ -1640,6 +1722,7 @@
       <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="C28" s="18"/>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1654,6 +1737,7 @@
       <c r="B29" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="C29" s="18"/>
       <c r="E29" s="3" t="s">
         <v>6</v>
       </c>
@@ -1668,6 +1752,7 @@
       <c r="B30" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="C30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1679,6 +1764,7 @@
       <c r="B31" s="7" t="s">
         <v>116</v>
       </c>
+      <c r="C31" s="18"/>
       <c r="H31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1690,6 +1776,7 @@
       <c r="B32" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="C32" s="18"/>
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
@@ -1701,6 +1788,7 @@
       <c r="B33" s="7" t="s">
         <v>274</v>
       </c>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="16">
@@ -1709,6 +1797,7 @@
       <c r="B34" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="C34" s="18"/>
       <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1720,6 +1809,7 @@
       <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="16">
@@ -1728,6 +1818,7 @@
       <c r="B36" s="5" t="s">
         <v>210</v>
       </c>
+      <c r="C36" s="18"/>
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
@@ -1739,6 +1830,7 @@
       <c r="B37" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="16">
@@ -1747,6 +1839,7 @@
       <c r="B38" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="16">
@@ -1755,6 +1848,7 @@
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="C39" s="18"/>
       <c r="E39" s="3" t="s">
         <v>6</v>
       </c>
@@ -1766,6 +1860,7 @@
       <c r="B40" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="16">
@@ -1774,6 +1869,7 @@
       <c r="B41" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C41" s="18"/>
       <c r="E41" s="3" t="s">
         <v>6</v>
       </c>
@@ -1785,6 +1881,7 @@
       <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="16">
@@ -1793,6 +1890,7 @@
       <c r="B43" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="C43" s="18"/>
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
@@ -1804,6 +1902,7 @@
       <c r="B44" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="C44" s="18"/>
       <c r="F44" s="3" t="s">
         <v>6</v>
       </c>
@@ -1815,6 +1914,7 @@
       <c r="B45" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="C45" s="18"/>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
@@ -1829,6 +1929,7 @@
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="C46" s="18"/>
       <c r="E46" s="3" t="s">
         <v>6</v>
       </c>
@@ -1840,6 +1941,7 @@
       <c r="B47" s="5" t="s">
         <v>209</v>
       </c>
+      <c r="C47" s="18"/>
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
@@ -1851,6 +1953,7 @@
       <c r="B48" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="C48" s="18"/>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
@@ -1862,6 +1965,7 @@
       <c r="B49" s="7" t="s">
         <v>284</v>
       </c>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="16">
@@ -1870,6 +1974,7 @@
       <c r="B50" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="C50" s="18"/>
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
@@ -1884,6 +1989,7 @@
       <c r="B51" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="C51" s="18"/>
       <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
@@ -1898,6 +2004,7 @@
       <c r="B52" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="C52" s="18"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="16">
@@ -1906,6 +2013,7 @@
       <c r="B53" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="16">
@@ -1914,6 +2022,7 @@
       <c r="B54" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="C54" s="18"/>
       <c r="F54" s="3" t="s">
         <v>6</v>
       </c>
@@ -1925,6 +2034,7 @@
       <c r="B55" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="C55" s="18"/>
       <c r="F55" s="3" t="s">
         <v>6</v>
       </c>
@@ -1936,6 +2046,7 @@
       <c r="B56" s="4" t="s">
         <v>241</v>
       </c>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="16">
@@ -1944,6 +2055,7 @@
       <c r="B57" s="4" t="s">
         <v>213</v>
       </c>
+      <c r="C57" s="18"/>
       <c r="H57" s="3" t="s">
         <v>6</v>
       </c>
@@ -1955,6 +2067,7 @@
       <c r="B58" s="4" t="s">
         <v>236</v>
       </c>
+      <c r="C58" s="18"/>
       <c r="D58" s="3" t="s">
         <v>6</v>
       </c>
@@ -1969,6 +2082,7 @@
       <c r="B59" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="C59" s="18"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -1980,6 +2094,7 @@
       <c r="B60" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="C60" s="18"/>
       <c r="G60" s="3" t="s">
         <v>6</v>
       </c>
@@ -1991,6 +2106,7 @@
       <c r="B61" s="4" t="s">
         <v>238</v>
       </c>
+      <c r="C61" s="18"/>
       <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
@@ -2008,6 +2124,7 @@
       <c r="B62" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="C62" s="18"/>
       <c r="F62" s="3" t="s">
         <v>6</v>
       </c>
@@ -2019,6 +2136,7 @@
       <c r="B63" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="C63" s="18"/>
       <c r="H63" s="3" t="s">
         <v>6</v>
       </c>
@@ -2030,6 +2148,7 @@
       <c r="B64" s="7" t="s">
         <v>166</v>
       </c>
+      <c r="C64" s="18"/>
       <c r="F64" s="3" t="s">
         <v>6</v>
       </c>
@@ -2041,6 +2160,7 @@
       <c r="B65" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="16">
@@ -2049,6 +2169,7 @@
       <c r="B66" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C66" s="18"/>
       <c r="E66" s="3" t="s">
         <v>6</v>
       </c>
@@ -2063,6 +2184,7 @@
       <c r="B67" s="7" t="s">
         <v>141</v>
       </c>
+      <c r="C67" s="18"/>
       <c r="D67" s="3" t="s">
         <v>6</v>
       </c>
@@ -2074,6 +2196,7 @@
       <c r="B68" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="C68" s="18"/>
       <c r="F68" s="3" t="s">
         <v>6</v>
       </c>
@@ -2085,6 +2208,7 @@
       <c r="B69" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="C69" s="18"/>
       <c r="H69" s="3" t="s">
         <v>6</v>
       </c>
@@ -2096,6 +2220,7 @@
       <c r="B70" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="C70" s="18"/>
       <c r="F70" s="3" t="s">
         <v>6</v>
       </c>
@@ -2107,6 +2232,7 @@
       <c r="B71" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C71" s="18"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="16">
@@ -2115,6 +2241,7 @@
       <c r="B72" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="C72" s="18"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="16">
@@ -2123,6 +2250,7 @@
       <c r="B73" s="7" t="s">
         <v>257</v>
       </c>
+      <c r="C73" s="18"/>
       <c r="E73" s="3" t="s">
         <v>6</v>
       </c>
@@ -2137,6 +2265,7 @@
       <c r="B74" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="C74" s="18"/>
       <c r="D74" s="3" t="s">
         <v>6</v>
       </c>
@@ -2148,6 +2277,7 @@
       <c r="B75" s="5" t="s">
         <v>212</v>
       </c>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="16">
@@ -2156,6 +2286,7 @@
       <c r="B76" s="4" t="s">
         <v>256</v>
       </c>
+      <c r="C76" s="18"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="16">
@@ -2164,6 +2295,7 @@
       <c r="B77" s="5" t="s">
         <v>191</v>
       </c>
+      <c r="C77" s="18"/>
       <c r="E77" s="3" t="s">
         <v>6</v>
       </c>
@@ -2178,6 +2310,7 @@
       <c r="B78" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C78" s="18"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:8">
@@ -2187,6 +2320,7 @@
       <c r="B79" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="C79" s="18"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="16">
@@ -2195,6 +2329,7 @@
       <c r="B80" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="C80" s="18"/>
       <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
@@ -2206,6 +2341,7 @@
       <c r="B81" s="7" t="s">
         <v>227</v>
       </c>
+      <c r="C81" s="18"/>
       <c r="F81" s="3" t="s">
         <v>6</v>
       </c>
@@ -2217,6 +2353,7 @@
       <c r="B82" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="C82" s="18"/>
       <c r="F82" s="3" t="s">
         <v>6</v>
       </c>
@@ -2228,6 +2365,7 @@
       <c r="B83" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="C83" s="18"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="16">
@@ -2236,6 +2374,7 @@
       <c r="B84" s="7" t="s">
         <v>275</v>
       </c>
+      <c r="C84" s="18"/>
       <c r="F84" s="3" t="s">
         <v>6</v>
       </c>
@@ -2247,6 +2386,7 @@
       <c r="B85" s="4" t="s">
         <v>297</v>
       </c>
+      <c r="C85" s="18"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="16">
@@ -2255,6 +2395,7 @@
       <c r="B86" s="11" t="s">
         <v>167</v>
       </c>
+      <c r="C86" s="18"/>
       <c r="F86" s="3" t="s">
         <v>6</v>
       </c>
@@ -2266,6 +2407,7 @@
       <c r="B87" s="4" t="s">
         <v>247</v>
       </c>
+      <c r="C87" s="18"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="16">
@@ -2274,6 +2416,7 @@
       <c r="B88" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="C88" s="18"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="16">
@@ -2282,6 +2425,7 @@
       <c r="B89" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C89" s="18"/>
       <c r="G89" s="3" t="s">
         <v>6</v>
       </c>
@@ -2293,6 +2437,7 @@
       <c r="B90" s="7" t="s">
         <v>174</v>
       </c>
+      <c r="C90" s="18"/>
       <c r="D90" s="3" t="s">
         <v>6</v>
       </c>
@@ -2304,6 +2449,7 @@
       <c r="B91" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C91" s="18"/>
       <c r="E91" s="3" t="s">
         <v>6</v>
       </c>
@@ -2315,6 +2461,7 @@
       <c r="B92" s="4" t="s">
         <v>202</v>
       </c>
+      <c r="C92" s="18"/>
       <c r="D92" s="3" t="s">
         <v>6</v>
       </c>
@@ -2326,6 +2473,7 @@
       <c r="B93" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="C93" s="18"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="16">
@@ -2334,6 +2482,7 @@
       <c r="B94" s="7" t="s">
         <v>129</v>
       </c>
+      <c r="C94" s="18"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="16">
@@ -2342,6 +2491,7 @@
       <c r="B95" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="C95" s="18"/>
       <c r="E95" s="3" t="s">
         <v>6</v>
       </c>
@@ -2353,6 +2503,7 @@
       <c r="B96" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="C96" s="18"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="16">
@@ -2361,6 +2512,7 @@
       <c r="B97" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C97" s="18"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="16">
@@ -2369,6 +2521,7 @@
       <c r="B98" s="4" t="s">
         <v>249</v>
       </c>
+      <c r="C98" s="18"/>
       <c r="E98" s="3" t="s">
         <v>6</v>
       </c>
@@ -2383,6 +2536,7 @@
       <c r="B99" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="C99" s="18"/>
       <c r="E99" s="3" t="s">
         <v>6</v>
       </c>
@@ -2394,6 +2548,7 @@
       <c r="B100" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="16">
@@ -2402,6 +2557,7 @@
       <c r="B101" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C101" s="18"/>
       <c r="G101" s="3" t="s">
         <v>6</v>
       </c>
@@ -2413,6 +2569,7 @@
       <c r="B102" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="16">
@@ -2421,6 +2578,7 @@
       <c r="B103" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="C103" s="18"/>
       <c r="H103" s="3" t="s">
         <v>6</v>
       </c>
@@ -2432,6 +2590,7 @@
       <c r="B104" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="C104" s="18"/>
       <c r="E104" s="3" t="s">
         <v>6</v>
       </c>
@@ -2443,6 +2602,7 @@
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="C105" s="18"/>
       <c r="E105" s="3" t="s">
         <v>6</v>
       </c>
@@ -2454,6 +2614,7 @@
       <c r="B106" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="16">
@@ -2462,6 +2623,7 @@
       <c r="B107" s="7" t="s">
         <v>145</v>
       </c>
+      <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="16">
@@ -2470,6 +2632,7 @@
       <c r="B108" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C108" s="18"/>
       <c r="F108" s="3" t="s">
         <v>6</v>
       </c>
@@ -2481,6 +2644,7 @@
       <c r="B109" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="C109" s="18"/>
       <c r="E109" s="3" t="s">
         <v>6</v>
       </c>
@@ -2492,6 +2656,7 @@
       <c r="B110" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="C110" s="18"/>
       <c r="G110" s="3" t="s">
         <v>6</v>
       </c>
@@ -2503,6 +2668,7 @@
       <c r="B111" s="7" t="s">
         <v>261</v>
       </c>
+      <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="16">
@@ -2511,6 +2677,7 @@
       <c r="B112" s="7" t="s">
         <v>292</v>
       </c>
+      <c r="C112" s="18"/>
       <c r="D112" s="3" t="s">
         <v>6</v>
       </c>
@@ -2525,6 +2692,7 @@
       <c r="B113" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="C113" s="18"/>
       <c r="F113" s="3" t="s">
         <v>6</v>
       </c>
@@ -2536,6 +2704,7 @@
       <c r="B114" s="7" t="s">
         <v>267</v>
       </c>
+      <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="16">
@@ -2544,6 +2713,7 @@
       <c r="B115" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="C115" s="18"/>
       <c r="D115" s="3" t="s">
         <v>6</v>
       </c>
@@ -2558,6 +2728,7 @@
       <c r="B116" s="5" t="s">
         <v>211</v>
       </c>
+      <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="16">
@@ -2566,6 +2737,7 @@
       <c r="B117" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="C117" s="18"/>
       <c r="D117" s="3" t="s">
         <v>6</v>
       </c>
@@ -2577,6 +2749,7 @@
       <c r="B118" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="C118" s="18"/>
       <c r="E118" s="3" t="s">
         <v>6</v>
       </c>
@@ -2588,6 +2761,7 @@
       <c r="B119" s="7" t="s">
         <v>278</v>
       </c>
+      <c r="C119" s="18"/>
       <c r="H119" s="3" t="s">
         <v>6</v>
       </c>
@@ -2599,6 +2773,7 @@
       <c r="B120" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="C120" s="18"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="16">
@@ -2607,6 +2782,7 @@
       <c r="B121" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="C121" s="18"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="16">
@@ -2615,6 +2791,7 @@
       <c r="B122" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="C122" s="18"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="16">
@@ -2623,6 +2800,7 @@
       <c r="B123" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="C123" s="18"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="16">
@@ -2631,6 +2809,7 @@
       <c r="B124" s="11" t="s">
         <v>107</v>
       </c>
+      <c r="C124" s="18"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="16">
@@ -2639,6 +2818,7 @@
       <c r="B125" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="C125" s="18"/>
       <c r="E125" s="3" t="s">
         <v>6</v>
       </c>
@@ -2650,6 +2830,7 @@
       <c r="B126" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="C126" s="18"/>
       <c r="D126" s="3" t="s">
         <v>6</v>
       </c>
@@ -2664,6 +2845,7 @@
       <c r="B127" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C127" s="18"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="16">
@@ -2672,6 +2854,7 @@
       <c r="B128" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="C128" s="18"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="16">
@@ -2680,6 +2863,7 @@
       <c r="B129" s="4" t="s">
         <v>216</v>
       </c>
+      <c r="C129" s="18"/>
       <c r="E129" s="3" t="s">
         <v>6</v>
       </c>
@@ -2691,6 +2875,7 @@
       <c r="B130" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C130" s="18"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="16">
@@ -2699,6 +2884,7 @@
       <c r="B131" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C131" s="18"/>
       <c r="E131" s="3" t="s">
         <v>6</v>
       </c>
@@ -2713,6 +2899,7 @@
       <c r="B132" s="11" t="s">
         <v>88</v>
       </c>
+      <c r="C132" s="18"/>
       <c r="F132" s="3" t="s">
         <v>6</v>
       </c>
@@ -2724,6 +2911,7 @@
       <c r="B133" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="C133" s="18"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="16">
@@ -2732,6 +2920,7 @@
       <c r="B134" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="C134" s="18"/>
       <c r="H134" s="3" t="s">
         <v>6</v>
       </c>
@@ -2743,6 +2932,7 @@
       <c r="B135" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C135" s="18"/>
       <c r="H135" s="3" t="s">
         <v>6</v>
       </c>
@@ -2754,6 +2944,7 @@
       <c r="B136" s="4" t="s">
         <v>263</v>
       </c>
+      <c r="C136" s="18"/>
       <c r="E136" s="3" t="s">
         <v>6</v>
       </c>
@@ -2765,6 +2956,7 @@
       <c r="B137" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="C137" s="18"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="16">
@@ -2773,6 +2965,7 @@
       <c r="B138" s="7" t="s">
         <v>226</v>
       </c>
+      <c r="C138" s="18"/>
       <c r="F138" s="3" t="s">
         <v>6</v>
       </c>
@@ -2784,6 +2977,7 @@
       <c r="B139" s="7" t="s">
         <v>175</v>
       </c>
+      <c r="C139" s="18"/>
       <c r="D139" s="3" t="s">
         <v>6</v>
       </c>
@@ -2798,6 +2992,7 @@
       <c r="B140" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="C140" s="18"/>
       <c r="E140" s="3" t="s">
         <v>6</v>
       </c>
@@ -2809,6 +3004,7 @@
       <c r="B141" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="C141" s="18"/>
       <c r="E141" s="3" t="s">
         <v>6</v>
       </c>
@@ -2823,6 +3019,7 @@
       <c r="B142" s="11" t="s">
         <v>177</v>
       </c>
+      <c r="C142" s="18"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="16">
@@ -2831,6 +3028,7 @@
       <c r="B143" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="C143" s="18"/>
       <c r="E143" s="3" t="s">
         <v>6</v>
       </c>
@@ -2845,6 +3043,7 @@
       <c r="B144" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C144" s="18"/>
       <c r="H144" s="3" t="s">
         <v>6</v>
       </c>
@@ -2856,6 +3055,7 @@
       <c r="B145" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C145" s="18"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="16">
@@ -2864,6 +3064,7 @@
       <c r="B146" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="C146" s="18"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="16">
@@ -2872,6 +3073,7 @@
       <c r="B147" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C147" s="18"/>
       <c r="D147" s="3" t="s">
         <v>6</v>
       </c>
@@ -2883,6 +3085,7 @@
       <c r="B148" s="4" t="s">
         <v>298</v>
       </c>
+      <c r="C148" s="18"/>
       <c r="H148" s="3" t="s">
         <v>6</v>
       </c>
@@ -2894,6 +3097,7 @@
       <c r="B149" s="5" t="s">
         <v>285</v>
       </c>
+      <c r="C149" s="18"/>
       <c r="G149" s="3" t="s">
         <v>6</v>
       </c>
@@ -2905,6 +3109,7 @@
       <c r="B150" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="C150" s="18"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="16">
@@ -2913,6 +3118,7 @@
       <c r="B151" s="7" t="s">
         <v>163</v>
       </c>
+      <c r="C151" s="18"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="16">
@@ -2921,6 +3127,7 @@
       <c r="B152" s="7" t="s">
         <v>234</v>
       </c>
+      <c r="C152" s="18"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="16">
@@ -2929,6 +3136,7 @@
       <c r="B153" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C153" s="18"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="16">
@@ -2937,6 +3145,7 @@
       <c r="B154" s="7" t="s">
         <v>264</v>
       </c>
+      <c r="C154" s="18"/>
       <c r="D154" s="3" t="s">
         <v>6</v>
       </c>
@@ -2951,6 +3160,7 @@
       <c r="B155" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C155" s="18"/>
       <c r="F155" s="3" t="s">
         <v>6</v>
       </c>
@@ -2962,6 +3172,7 @@
       <c r="B156" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="C156" s="18"/>
       <c r="D156" s="3" t="s">
         <v>6</v>
       </c>
@@ -2973,6 +3184,7 @@
       <c r="B157" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="C157" s="18"/>
       <c r="D157" s="2" t="s">
         <v>6</v>
       </c>
@@ -2984,6 +3196,7 @@
       <c r="B158" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="C158" s="18"/>
       <c r="F158" s="3" t="s">
         <v>6</v>
       </c>
@@ -2995,6 +3208,7 @@
       <c r="B159" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="C159" s="18"/>
       <c r="E159" s="3" t="s">
         <v>6</v>
       </c>
@@ -3009,6 +3223,7 @@
       <c r="B160" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C160" s="18"/>
       <c r="H160" s="3" t="s">
         <v>6</v>
       </c>
@@ -3020,6 +3235,7 @@
       <c r="B161" s="7" t="s">
         <v>243</v>
       </c>
+      <c r="C161" s="18"/>
       <c r="D161" s="3" t="s">
         <v>6</v>
       </c>
@@ -3034,6 +3250,7 @@
       <c r="B162" s="4" t="s">
         <v>214</v>
       </c>
+      <c r="C162" s="18"/>
       <c r="F162" s="3" t="s">
         <v>6</v>
       </c>
@@ -3045,6 +3262,7 @@
       <c r="B163" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="C163" s="18"/>
       <c r="F163" s="3" t="s">
         <v>6</v>
       </c>
@@ -3056,6 +3274,7 @@
       <c r="B164" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C164" s="18"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="16">
@@ -3064,6 +3283,7 @@
       <c r="B165" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="C165" s="18"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="16">
@@ -3072,6 +3292,7 @@
       <c r="B166" s="7" t="s">
         <v>273</v>
       </c>
+      <c r="C166" s="18"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="16">
@@ -3080,6 +3301,7 @@
       <c r="B167" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="C167" s="18"/>
       <c r="H167" s="3" t="s">
         <v>6</v>
       </c>
@@ -3091,6 +3313,7 @@
       <c r="B168" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="C168" s="18"/>
       <c r="F168" s="3" t="s">
         <v>6</v>
       </c>
@@ -3102,6 +3325,7 @@
       <c r="B169" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="C169" s="18"/>
       <c r="F169" s="3" t="s">
         <v>6</v>
       </c>
@@ -3113,6 +3337,7 @@
       <c r="B170" s="7" t="s">
         <v>231</v>
       </c>
+      <c r="C170" s="18"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="16">
@@ -3121,6 +3346,7 @@
       <c r="B171" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="C171" s="18"/>
       <c r="D171" s="3" t="s">
         <v>6</v>
       </c>
@@ -3132,6 +3358,7 @@
       <c r="B172" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="C172" s="18"/>
       <c r="D172" s="3" t="s">
         <v>6</v>
       </c>
@@ -3143,6 +3370,7 @@
       <c r="B173" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="C173" s="18"/>
       <c r="H173" s="3" t="s">
         <v>6</v>
       </c>
@@ -3154,6 +3382,7 @@
       <c r="B174" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="C174" s="18"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="16">
@@ -3162,6 +3391,7 @@
       <c r="B175" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C175" s="18"/>
       <c r="F175" s="3" t="s">
         <v>6</v>
       </c>
@@ -3173,6 +3403,7 @@
       <c r="B176" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="C176" s="18"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="16">
@@ -3181,6 +3412,7 @@
       <c r="B177" s="12" t="s">
         <v>117</v>
       </c>
+      <c r="C177" s="18"/>
       <c r="F177" s="3" t="s">
         <v>6</v>
       </c>
@@ -3195,6 +3427,7 @@
       <c r="B178" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="C178" s="18"/>
       <c r="D178" s="3" t="s">
         <v>6</v>
       </c>
@@ -3206,6 +3439,7 @@
       <c r="B179" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C179" s="18"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="16">
@@ -3214,6 +3448,7 @@
       <c r="B180" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="C180" s="18"/>
       <c r="D180" s="3" t="s">
         <v>6</v>
       </c>
@@ -3228,6 +3463,7 @@
       <c r="B181" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="C181" s="18"/>
       <c r="F181" s="3" t="s">
         <v>6</v>
       </c>
@@ -3239,6 +3475,7 @@
       <c r="B182" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="C182" s="18"/>
       <c r="H182" s="3" t="s">
         <v>6</v>
       </c>
@@ -3250,6 +3487,7 @@
       <c r="B183" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="C183" s="18"/>
       <c r="D183" s="3" t="s">
         <v>6</v>
       </c>
@@ -3264,6 +3502,7 @@
       <c r="B184" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="C184" s="18"/>
       <c r="D184" s="3" t="s">
         <v>6</v>
       </c>
@@ -3278,6 +3517,7 @@
       <c r="B185" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C185" s="18"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="16">
@@ -3286,6 +3526,7 @@
       <c r="B186" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="C186" s="18"/>
       <c r="G186" s="3" t="s">
         <v>6</v>
       </c>
@@ -3297,6 +3538,7 @@
       <c r="B187" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="C187" s="18"/>
       <c r="H187" s="3" t="s">
         <v>6</v>
       </c>
@@ -3308,6 +3550,7 @@
       <c r="B188" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="C188" s="18"/>
       <c r="D188" s="3" t="s">
         <v>6</v>
       </c>
@@ -3319,6 +3562,7 @@
       <c r="B189" s="7" t="s">
         <v>168</v>
       </c>
+      <c r="C189" s="18"/>
       <c r="F189" s="3" t="s">
         <v>6</v>
       </c>
@@ -3330,6 +3574,7 @@
       <c r="B190" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="C190" s="18"/>
       <c r="F190" s="3" t="s">
         <v>6</v>
       </c>
@@ -3341,6 +3586,7 @@
       <c r="B191" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C191" s="18"/>
       <c r="D191" s="3" t="s">
         <v>6</v>
       </c>
@@ -3352,6 +3598,7 @@
       <c r="B192" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="C192" s="18"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="16">
@@ -3360,6 +3607,7 @@
       <c r="B193" s="4" t="s">
         <v>219</v>
       </c>
+      <c r="C193" s="18"/>
       <c r="E193" s="3" t="s">
         <v>6</v>
       </c>
@@ -3371,6 +3619,7 @@
       <c r="B194" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="C194" s="18"/>
       <c r="D194" s="3" t="s">
         <v>6</v>
       </c>
@@ -3388,6 +3637,7 @@
       <c r="B195" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="C195" s="18"/>
       <c r="D195" s="3"/>
     </row>
     <row r="196" spans="1:8">
@@ -3397,6 +3647,7 @@
       <c r="B196" s="11" t="s">
         <v>172</v>
       </c>
+      <c r="C196" s="18"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="16">
@@ -3405,6 +3656,7 @@
       <c r="B197" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="C197" s="18"/>
       <c r="F197" s="3" t="s">
         <v>6</v>
       </c>
@@ -3416,6 +3668,7 @@
       <c r="B198" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="C198" s="18"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="16">
@@ -3424,6 +3677,7 @@
       <c r="B199" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="C199" s="18"/>
       <c r="H199" s="3" t="s">
         <v>6</v>
       </c>
@@ -3435,6 +3689,7 @@
       <c r="B200" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="C200" s="18"/>
       <c r="E200" s="3" t="s">
         <v>6</v>
       </c>
@@ -3449,6 +3704,7 @@
       <c r="B201" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="C201" s="18"/>
       <c r="D201" s="3" t="s">
         <v>6</v>
       </c>
@@ -3460,6 +3716,7 @@
       <c r="B202" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="C202" s="18"/>
       <c r="F202" s="3" t="s">
         <v>6</v>
       </c>
@@ -3471,6 +3728,7 @@
       <c r="B203" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="C203" s="18"/>
       <c r="F203" s="3" t="s">
         <v>6</v>
       </c>
@@ -3482,6 +3740,7 @@
       <c r="B204" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="C204" s="18"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="16">
@@ -3490,6 +3749,7 @@
       <c r="B205" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="C205" s="18"/>
       <c r="F205" s="3" t="s">
         <v>6</v>
       </c>
@@ -3501,6 +3761,7 @@
       <c r="B206" s="5" t="s">
         <v>282</v>
       </c>
+      <c r="C206" s="18"/>
       <c r="F206" s="3" t="s">
         <v>6</v>
       </c>
@@ -3515,6 +3776,7 @@
       <c r="B207" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="C207" s="18"/>
       <c r="F207" s="3" t="s">
         <v>6</v>
       </c>
@@ -3529,6 +3791,7 @@
       <c r="B208" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="C208" s="18"/>
       <c r="F208" s="3" t="s">
         <v>6</v>
       </c>
@@ -3543,6 +3806,7 @@
       <c r="B209" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="C209" s="18"/>
       <c r="F209" s="3" t="s">
         <v>6</v>
       </c>
@@ -3554,6 +3818,7 @@
       <c r="B210" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="C210" s="18"/>
       <c r="F210" s="3" t="s">
         <v>6</v>
       </c>
@@ -3565,6 +3830,7 @@
       <c r="B211" s="7" t="s">
         <v>281</v>
       </c>
+      <c r="C211" s="18"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="16">
@@ -3573,6 +3839,7 @@
       <c r="B212" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="C212" s="18"/>
       <c r="F212" s="3" t="s">
         <v>6</v>
       </c>
@@ -3587,6 +3854,7 @@
       <c r="B213" s="7" t="s">
         <v>164</v>
       </c>
+      <c r="C213" s="18"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="16">
@@ -3595,6 +3863,7 @@
       <c r="B214" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="C214" s="18"/>
       <c r="F214" s="3" t="s">
         <v>6</v>
       </c>
@@ -3609,6 +3878,7 @@
       <c r="B215" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="C215" s="18"/>
       <c r="H215" s="3" t="s">
         <v>6</v>
       </c>
@@ -3620,6 +3890,7 @@
       <c r="B216" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="C216" s="18"/>
       <c r="H216" s="3" t="s">
         <v>6</v>
       </c>
@@ -3631,6 +3902,7 @@
       <c r="B217" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C217" s="18"/>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="16">
@@ -3639,6 +3911,7 @@
       <c r="B218" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C218" s="18"/>
       <c r="G218" s="3" t="s">
         <v>6</v>
       </c>
@@ -3650,6 +3923,7 @@
       <c r="B219" s="7" t="s">
         <v>250</v>
       </c>
+      <c r="C219" s="18"/>
       <c r="D219" s="3" t="s">
         <v>6</v>
       </c>
@@ -3664,6 +3938,7 @@
       <c r="B220" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="C220" s="18"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="16">
@@ -3672,6 +3947,7 @@
       <c r="B221" s="11" t="s">
         <v>225</v>
       </c>
+      <c r="C221" s="18"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="16">
@@ -3680,6 +3956,7 @@
       <c r="B222" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C222" s="18"/>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="16">
@@ -3688,6 +3965,7 @@
       <c r="B223" s="7" t="s">
         <v>289</v>
       </c>
+      <c r="C223" s="18"/>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="16">
@@ -3696,6 +3974,7 @@
       <c r="B224" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C224" s="18"/>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="16">
@@ -3704,6 +3983,7 @@
       <c r="B225" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="C225" s="18"/>
       <c r="F225" s="3" t="s">
         <v>6</v>
       </c>
@@ -3715,6 +3995,7 @@
       <c r="B226" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="C226" s="18"/>
       <c r="H226" s="3" t="s">
         <v>6</v>
       </c>
@@ -3726,6 +4007,7 @@
       <c r="B227" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="C227" s="18"/>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="16">
@@ -3734,6 +4016,7 @@
       <c r="B228" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="C228" s="18"/>
       <c r="F228" s="3" t="s">
         <v>6</v>
       </c>
@@ -3745,6 +4028,7 @@
       <c r="B229" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="C229" s="18"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="16">
@@ -3753,6 +4037,7 @@
       <c r="B230" s="7" t="s">
         <v>138</v>
       </c>
+      <c r="C230" s="18"/>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="16">
@@ -3761,6 +4046,7 @@
       <c r="B231" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="C231" s="18"/>
       <c r="F231" s="3" t="s">
         <v>6</v>
       </c>
@@ -3772,6 +4058,7 @@
       <c r="B232" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C232" s="18"/>
       <c r="H232" s="3" t="s">
         <v>6</v>
       </c>
@@ -3783,6 +4070,7 @@
       <c r="B233" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="C233" s="18"/>
       <c r="D233" s="3" t="s">
         <v>6</v>
       </c>
@@ -3794,6 +4082,7 @@
       <c r="B234" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C234" s="18"/>
       <c r="D234" s="3" t="s">
         <v>6</v>
       </c>
@@ -3808,6 +4097,7 @@
       <c r="B235" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="C235" s="18"/>
       <c r="F235" s="2" t="s">
         <v>6</v>
       </c>
@@ -3819,6 +4109,7 @@
       <c r="B236" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C236" s="18"/>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="16">
@@ -3827,6 +4118,7 @@
       <c r="B237" s="7" t="s">
         <v>137</v>
       </c>
+      <c r="C237" s="18"/>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="16">
@@ -3835,6 +4127,7 @@
       <c r="B238" s="5" t="s">
         <v>262</v>
       </c>
+      <c r="C238" s="18"/>
       <c r="E238" s="3" t="s">
         <v>6</v>
       </c>
@@ -3849,6 +4142,7 @@
       <c r="B239" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="C239" s="18"/>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="16">
@@ -3857,6 +4151,7 @@
       <c r="B240" s="7" t="s">
         <v>230</v>
       </c>
+      <c r="C240" s="18"/>
       <c r="E240" s="3" t="s">
         <v>6</v>
       </c>
@@ -3871,6 +4166,7 @@
       <c r="B241" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C241" s="18"/>
       <c r="F241" s="3" t="s">
         <v>6</v>
       </c>
@@ -3882,6 +4178,7 @@
       <c r="B242" s="4" t="s">
         <v>280</v>
       </c>
+      <c r="C242" s="18"/>
       <c r="D242" s="3" t="s">
         <v>6</v>
       </c>
@@ -3899,6 +4196,7 @@
       <c r="B243" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="C243" s="18"/>
       <c r="E243" s="3" t="s">
         <v>6</v>
       </c>
@@ -3910,6 +4208,7 @@
       <c r="B244" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="C244" s="18"/>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="16">
@@ -3918,6 +4217,7 @@
       <c r="B245" s="7" t="s">
         <v>286</v>
       </c>
+      <c r="C245" s="18"/>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="16">
@@ -3926,6 +4226,7 @@
       <c r="B246" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="C246" s="18"/>
       <c r="F246" s="3" t="s">
         <v>6</v>
       </c>
@@ -3940,6 +4241,7 @@
       <c r="B247" s="13" t="s">
         <v>119</v>
       </c>
+      <c r="C247" s="18"/>
       <c r="E247" s="3" t="s">
         <v>6</v>
       </c>
@@ -3954,6 +4256,7 @@
       <c r="B248" s="11" t="s">
         <v>178</v>
       </c>
+      <c r="C248" s="18"/>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="16">
@@ -3962,6 +4265,7 @@
       <c r="B249" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="C249" s="18"/>
       <c r="F249" s="3" t="s">
         <v>6</v>
       </c>
@@ -3973,6 +4277,7 @@
       <c r="B250" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="C250" s="18"/>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="16">
@@ -3981,6 +4286,7 @@
       <c r="B251" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="C251" s="18"/>
       <c r="D251" s="3" t="s">
         <v>6</v>
       </c>
@@ -3992,6 +4298,7 @@
       <c r="B252" s="7" t="s">
         <v>291</v>
       </c>
+      <c r="C252" s="18"/>
       <c r="E252" s="3" t="s">
         <v>6</v>
       </c>
@@ -4003,6 +4310,7 @@
       <c r="B253" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="C253" s="18"/>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="16">
@@ -4011,6 +4319,7 @@
       <c r="B254" s="7" t="s">
         <v>136</v>
       </c>
+      <c r="C254" s="18"/>
       <c r="H254" s="3" t="s">
         <v>6</v>
       </c>
@@ -4022,6 +4331,7 @@
       <c r="B255" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="C255" s="18"/>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="16">
@@ -4030,6 +4340,7 @@
       <c r="B256" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="C256" s="18"/>
       <c r="E256" s="3" t="s">
         <v>6</v>
       </c>
@@ -4041,6 +4352,7 @@
       <c r="B257" s="7" t="s">
         <v>290</v>
       </c>
+      <c r="C257" s="18"/>
       <c r="E257" s="3" t="s">
         <v>6</v>
       </c>
@@ -4055,6 +4367,7 @@
       <c r="B258" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="C258" s="18"/>
       <c r="F258" s="3" t="s">
         <v>6</v>
       </c>
@@ -4066,6 +4379,7 @@
       <c r="B259" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="C259" s="18"/>
       <c r="F259" s="3" t="s">
         <v>6</v>
       </c>
@@ -4077,6 +4391,7 @@
       <c r="B260" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="C260" s="18"/>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="16">
@@ -4085,6 +4400,7 @@
       <c r="B261" s="4" t="s">
         <v>293</v>
       </c>
+      <c r="C261" s="18"/>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="16">
@@ -4093,6 +4409,7 @@
       <c r="B262" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="C262" s="18"/>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="16">
@@ -4101,6 +4418,7 @@
       <c r="B263" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C263" s="18"/>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="16">
@@ -4109,6 +4427,7 @@
       <c r="B264" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="C264" s="18"/>
       <c r="D264" s="3" t="s">
         <v>6</v>
       </c>
@@ -4123,6 +4442,7 @@
       <c r="B265" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="C265" s="18"/>
       <c r="E265" s="3" t="s">
         <v>6</v>
       </c>
@@ -4134,6 +4454,7 @@
       <c r="B266" s="5" t="s">
         <v>235</v>
       </c>
+      <c r="C266" s="18"/>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="16">
@@ -4142,6 +4463,7 @@
       <c r="B267" s="7" t="s">
         <v>283</v>
       </c>
+      <c r="C267" s="18"/>
       <c r="E267" s="3" t="s">
         <v>6</v>
       </c>
@@ -4153,6 +4475,7 @@
       <c r="B268" s="7" t="s">
         <v>269</v>
       </c>
+      <c r="C268" s="18"/>
       <c r="D268" s="3" t="s">
         <v>6</v>
       </c>
@@ -4164,6 +4487,7 @@
       <c r="B269" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="C269" s="18"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="16">
@@ -4172,6 +4496,7 @@
       <c r="B270" s="7" t="s">
         <v>228</v>
       </c>
+      <c r="C270" s="18"/>
       <c r="H270" s="3" t="s">
         <v>6</v>
       </c>
@@ -4183,6 +4508,7 @@
       <c r="B271" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="C271" s="18"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="16">
@@ -4191,6 +4517,7 @@
       <c r="B272" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="C272" s="18"/>
       <c r="F272" s="3" t="s">
         <v>6</v>
       </c>
@@ -4202,6 +4529,7 @@
       <c r="B273" s="7" t="s">
         <v>229</v>
       </c>
+      <c r="C273" s="18"/>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="16">
@@ -4210,6 +4538,7 @@
       <c r="B274" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="C274" s="18"/>
       <c r="D274" s="3" t="s">
         <v>6</v>
       </c>
@@ -4224,6 +4553,7 @@
       <c r="B275" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="C275" s="18"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="16">
@@ -4232,6 +4562,7 @@
       <c r="B276" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="C276" s="18"/>
       <c r="E276" s="3" t="s">
         <v>6</v>
       </c>
@@ -4243,6 +4574,7 @@
       <c r="B277" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="C277" s="18"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="16">
@@ -4251,6 +4583,7 @@
       <c r="B278" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="C278" s="18"/>
       <c r="F278" s="3" t="s">
         <v>6</v>
       </c>
@@ -4262,6 +4595,7 @@
       <c r="B279" s="7" t="s">
         <v>276</v>
       </c>
+      <c r="C279" s="18"/>
       <c r="D279" s="3" t="s">
         <v>6</v>
       </c>
@@ -4273,6 +4607,7 @@
       <c r="B280" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="C280" s="18"/>
       <c r="F280" s="3" t="s">
         <v>6</v>
       </c>
@@ -4284,6 +4619,7 @@
       <c r="B281" s="11" t="s">
         <v>272</v>
       </c>
+      <c r="C281" s="18"/>
       <c r="D281" s="3" t="s">
         <v>6</v>
       </c>
@@ -4298,6 +4634,7 @@
       <c r="B282" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="C282" s="18"/>
       <c r="H282" s="3" t="s">
         <v>6</v>
       </c>
@@ -4309,6 +4646,7 @@
       <c r="B283" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="C283" s="18"/>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="16">
@@ -4317,6 +4655,7 @@
       <c r="B284" s="7" t="s">
         <v>260</v>
       </c>
+      <c r="C284" s="18"/>
       <c r="D284" s="3" t="s">
         <v>6</v>
       </c>
@@ -4328,6 +4667,7 @@
       <c r="B285" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="C285" s="18"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="16">
@@ -4336,6 +4676,7 @@
       <c r="B286" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="C286" s="18"/>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="16">
@@ -4344,6 +4685,7 @@
       <c r="B287" s="12" t="s">
         <v>93</v>
       </c>
+      <c r="C287" s="18"/>
       <c r="F287" s="3" t="s">
         <v>6</v>
       </c>
@@ -4355,6 +4697,7 @@
       <c r="B288" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C288" s="18"/>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="16">
@@ -4363,6 +4706,7 @@
       <c r="B289" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="C289" s="18"/>
       <c r="D289" s="3" t="s">
         <v>6</v>
       </c>
@@ -4377,6 +4721,7 @@
       <c r="B290" s="7" t="s">
         <v>98</v>
       </c>
+      <c r="C290" s="18"/>
       <c r="D290" s="3" t="s">
         <v>6</v>
       </c>
@@ -4388,6 +4733,7 @@
       <c r="B291" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="C291" s="18"/>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="16">
@@ -4396,6 +4742,7 @@
       <c r="B292" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="C292" s="18"/>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="16">
@@ -4404,6 +4751,7 @@
       <c r="B293" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="C293" s="18"/>
       <c r="H293" s="3" t="s">
         <v>6</v>
       </c>
@@ -4415,6 +4763,7 @@
       <c r="B294" s="14" t="s">
         <v>171</v>
       </c>
+      <c r="C294" s="18"/>
       <c r="D294" s="3" t="s">
         <v>6</v>
       </c>
@@ -4426,6 +4775,7 @@
       <c r="B295" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="C295" s="18"/>
       <c r="F295" s="3" t="s">
         <v>6</v>
       </c>
@@ -4440,6 +4790,7 @@
       <c r="B296" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="C296" s="18"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="16">
@@ -4448,6 +4799,7 @@
       <c r="B297" s="7" t="s">
         <v>169</v>
       </c>
+      <c r="C297" s="18"/>
       <c r="E297" s="2" t="s">
         <v>6</v>
       </c>
@@ -4459,6 +4811,7 @@
       <c r="B298" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C298" s="18"/>
       <c r="G298" s="3" t="s">
         <v>6</v>
       </c>
@@ -4470,6 +4823,7 @@
       <c r="B299" s="7" t="s">
         <v>245</v>
       </c>
+      <c r="C299" s="18"/>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="16">
@@ -4478,6 +4832,7 @@
       <c r="B300" s="11" t="s">
         <v>105</v>
       </c>
+      <c r="C300" s="18"/>
       <c r="F300" s="3" t="s">
         <v>6</v>
       </c>
@@ -4489,6 +4844,7 @@
       <c r="B301" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="C301" s="18"/>
       <c r="D301" s="3" t="s">
         <v>6</v>
       </c>
@@ -4500,6 +4856,7 @@
       <c r="B302" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="C302" s="18"/>
       <c r="D302" s="3" t="s">
         <v>6</v>
       </c>
@@ -4511,6 +4868,7 @@
       <c r="B303" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="C303" s="18"/>
       <c r="H303" s="3" t="s">
         <v>6</v>
       </c>
@@ -4522,6 +4880,7 @@
       <c r="B304" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="C304" s="18"/>
       <c r="F304" s="3" t="s">
         <v>6</v>
       </c>

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF0B6E-2D1F-453A-9FA0-DB8210916A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BE517-215F-4F26-AA4B-4EF8CE27BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="307">
   <si>
     <t>Status</t>
   </si>
@@ -967,7 +967,10 @@
     <t>Again</t>
   </si>
   <si>
-    <t>Again ()</t>
+    <t>Again (MUST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again </t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1399,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1524,7 +1527,9 @@
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>306</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1541,9 @@
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="16">
@@ -1545,7 +1552,9 @@
       <c r="B13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BE517-215F-4F26-AA4B-4EF8CE27BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D9B8B-947B-440A-8325-98960E102C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="307">
   <si>
     <t>Status</t>
   </si>
@@ -1398,7 +1398,7 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1578,7 +1578,9 @@
       <c r="B15" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1592,9 @@
       <c r="B16" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="16">

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D9B8B-947B-440A-8325-98960E102C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9421B32B-757D-4F81-9A10-76A27872DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="309">
   <si>
     <t>Status</t>
   </si>
@@ -971,6 +971,12 @@
   </si>
   <si>
     <t xml:space="preserve">Again </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dp or  PreSum</t>
+  </si>
+  <si>
+    <t>Again(MUST)</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1426,27 +1432,26 @@
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="12.75">
       <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="16">
@@ -1502,7 +1507,7 @@
       <c r="C9" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1516,7 +1521,7 @@
       <c r="C10" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1530,7 +1535,7 @@
       <c r="C11" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1555,7 +1560,7 @@
       <c r="C13" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1567,7 +1572,7 @@
         <v>270</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1581,7 +1586,7 @@
       <c r="C15" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1596,100 +1601,119 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="16">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="C17" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="16">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="C18" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="16">
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="C19" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="16">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="C20" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="16">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="G22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="C22" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="16">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="C24" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -1697,17 +1721,17 @@
         <v>176</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -1715,11 +1739,11 @@
         <v>73</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -1728,7 +1752,7 @@
       </c>
       <c r="C27" s="18"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -1736,14 +1760,14 @@
         <v>75</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -1751,14 +1775,14 @@
         <v>258</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -1766,11 +1790,11 @@
         <v>50</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="F30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -1778,11 +1802,11 @@
         <v>116</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="H31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -1790,11 +1814,11 @@
         <v>74</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -1803,7 +1827,7 @@
       </c>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -1811,11 +1835,11 @@
         <v>43</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="F34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -1824,7 +1848,7 @@
       </c>
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -1832,11 +1856,11 @@
         <v>210</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -1845,7 +1869,7 @@
       </c>
       <c r="C37" s="18"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -1854,7 +1878,7 @@
       </c>
       <c r="C38" s="18"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="16">
         <v>35</v>
       </c>
@@ -1862,11 +1886,11 @@
         <v>51</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="E39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -1875,7 +1899,7 @@
       </c>
       <c r="C40" s="18"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -1883,11 +1907,11 @@
         <v>56</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="E41" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -1896,7 +1920,7 @@
       </c>
       <c r="C42" s="18"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -1904,11 +1928,11 @@
         <v>130</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -1916,11 +1940,11 @@
         <v>217</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="F44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -1928,14 +1952,14 @@
         <v>161</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -1943,11 +1967,11 @@
         <v>184</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="E46" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -1955,11 +1979,11 @@
         <v>209</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -1967,11 +1991,11 @@
         <v>154</v>
       </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="E48" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -1980,7 +2004,7 @@
       </c>
       <c r="C49" s="18"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -1988,14 +2012,14 @@
         <v>233</v>
       </c>
       <c r="C50" s="18"/>
-      <c r="D50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -2003,14 +2027,14 @@
         <v>296</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="E51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -2019,7 +2043,7 @@
       </c>
       <c r="C52" s="18"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="16">
         <v>49</v>
       </c>
@@ -2028,7 +2052,7 @@
       </c>
       <c r="C53" s="18"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="16">
         <v>50</v>
       </c>
@@ -2036,11 +2060,11 @@
         <v>89</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="F54" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="G54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="16">
         <v>51</v>
       </c>
@@ -2048,11 +2072,11 @@
         <v>180</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="F55" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="G55" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="16">
         <v>52</v>
       </c>
@@ -2061,7 +2085,7 @@
       </c>
       <c r="C56" s="18"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" s="16">
         <v>53</v>
       </c>
@@ -2069,11 +2093,11 @@
         <v>213</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="H57" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="16">
         <v>54</v>
       </c>
@@ -2081,14 +2105,14 @@
         <v>236</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="F58" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="16">
         <v>55</v>
       </c>
@@ -2096,11 +2120,11 @@
         <v>162</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="E59" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>56</v>
       </c>
@@ -2108,11 +2132,11 @@
         <v>97</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="G60" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="16">
         <v>57</v>
       </c>
@@ -2120,17 +2144,17 @@
         <v>238</v>
       </c>
       <c r="C61" s="18"/>
-      <c r="E61" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="G61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="16">
         <v>58</v>
       </c>
@@ -2138,11 +2162,11 @@
         <v>159</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="F62" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="G62" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="16">
         <v>59</v>
       </c>
@@ -2150,11 +2174,11 @@
         <v>101</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="H63" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="16">
         <v>60</v>
       </c>
@@ -2162,11 +2186,11 @@
         <v>166</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="F64" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="G64" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="16">
         <v>61</v>
       </c>
@@ -2175,7 +2199,7 @@
       </c>
       <c r="C65" s="18"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="16">
         <v>62</v>
       </c>
@@ -2183,14 +2207,14 @@
         <v>18</v>
       </c>
       <c r="C66" s="18"/>
-      <c r="E66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="F66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="16">
         <v>63</v>
       </c>
@@ -2198,11 +2222,11 @@
         <v>141</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="E67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="16">
         <v>64</v>
       </c>
@@ -2210,11 +2234,11 @@
         <v>59</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="F68" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="G68" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="16">
         <v>65</v>
       </c>
@@ -2222,11 +2246,11 @@
         <v>204</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="H69" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="16">
         <v>66</v>
       </c>
@@ -2234,11 +2258,11 @@
         <v>114</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="F70" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="G70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -2247,7 +2271,7 @@
       </c>
       <c r="C71" s="18"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -2256,7 +2280,7 @@
       </c>
       <c r="C72" s="18"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -2264,14 +2288,14 @@
         <v>257</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="E73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="F73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="16">
         <v>70</v>
       </c>
@@ -2279,11 +2303,11 @@
         <v>208</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="E74" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -2292,7 +2316,7 @@
       </c>
       <c r="C75" s="18"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -2301,7 +2325,7 @@
       </c>
       <c r="C76" s="18"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -2309,14 +2333,14 @@
         <v>191</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="E77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="F77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="16">
         <v>74</v>
       </c>
@@ -2324,9 +2348,9 @@
         <v>31</v>
       </c>
       <c r="C78" s="18"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="16">
         <v>75</v>
       </c>
@@ -2335,7 +2359,7 @@
       </c>
       <c r="C79" s="18"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" s="16">
         <v>76</v>
       </c>
@@ -2343,11 +2367,11 @@
         <v>120</v>
       </c>
       <c r="C80" s="18"/>
-      <c r="E80" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="F80" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="16">
         <v>77</v>
       </c>
@@ -2355,11 +2379,11 @@
         <v>227</v>
       </c>
       <c r="C81" s="18"/>
-      <c r="F81" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="16">
         <v>78</v>
       </c>
@@ -2367,11 +2391,11 @@
         <v>203</v>
       </c>
       <c r="C82" s="18"/>
-      <c r="F82" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="16">
         <v>79</v>
       </c>
@@ -2380,7 +2404,7 @@
       </c>
       <c r="C83" s="18"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="16">
         <v>80</v>
       </c>
@@ -2388,11 +2412,11 @@
         <v>275</v>
       </c>
       <c r="C84" s="18"/>
-      <c r="F84" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="16">
         <v>81</v>
       </c>
@@ -2401,7 +2425,7 @@
       </c>
       <c r="C85" s="18"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="16">
         <v>82</v>
       </c>
@@ -2409,11 +2433,11 @@
         <v>167</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="F86" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="16">
         <v>83</v>
       </c>
@@ -2422,7 +2446,7 @@
       </c>
       <c r="C87" s="18"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="16">
         <v>84</v>
       </c>
@@ -2431,7 +2455,7 @@
       </c>
       <c r="C88" s="18"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="16">
         <v>85</v>
       </c>
@@ -2439,11 +2463,11 @@
         <v>25</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="G89" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="16">
         <v>86</v>
       </c>
@@ -2451,11 +2475,11 @@
         <v>174</v>
       </c>
       <c r="C90" s="18"/>
-      <c r="D90" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="E90" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="16">
         <v>87</v>
       </c>
@@ -2463,11 +2487,11 @@
         <v>17</v>
       </c>
       <c r="C91" s="18"/>
-      <c r="E91" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="F91" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="16">
         <v>88</v>
       </c>
@@ -2475,11 +2499,11 @@
         <v>202</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="E92" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="16">
         <v>89</v>
       </c>
@@ -2488,7 +2512,7 @@
       </c>
       <c r="C93" s="18"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="16">
         <v>90</v>
       </c>
@@ -2497,7 +2521,7 @@
       </c>
       <c r="C94" s="18"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="16">
         <v>91</v>
       </c>
@@ -2505,11 +2529,11 @@
         <v>49</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="E95" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="F95" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="16">
         <v>92</v>
       </c>
@@ -2518,7 +2542,7 @@
       </c>
       <c r="C96" s="18"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97" s="16">
         <v>93</v>
       </c>
@@ -2527,7 +2551,7 @@
       </c>
       <c r="C97" s="18"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" s="16">
         <v>94</v>
       </c>
@@ -2535,14 +2559,14 @@
         <v>249</v>
       </c>
       <c r="C98" s="18"/>
-      <c r="E98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="F98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="16">
         <v>95</v>
       </c>
@@ -2550,11 +2574,11 @@
         <v>268</v>
       </c>
       <c r="C99" s="18"/>
-      <c r="E99" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="F99" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="16">
         <v>96</v>
       </c>
@@ -2563,7 +2587,7 @@
       </c>
       <c r="C100" s="18"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101" s="16">
         <v>97</v>
       </c>
@@ -2571,11 +2595,11 @@
         <v>67</v>
       </c>
       <c r="C101" s="18"/>
-      <c r="G101" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="H101" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="16">
         <v>98</v>
       </c>
@@ -2584,7 +2608,7 @@
       </c>
       <c r="C102" s="18"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" s="16">
         <v>99</v>
       </c>
@@ -2592,11 +2616,11 @@
         <v>7</v>
       </c>
       <c r="C103" s="18"/>
-      <c r="H103" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="16">
         <v>100</v>
       </c>
@@ -2604,11 +2628,11 @@
         <v>215</v>
       </c>
       <c r="C104" s="18"/>
-      <c r="E104" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="F104" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="16">
         <v>101</v>
       </c>
@@ -2616,11 +2640,11 @@
         <v>205</v>
       </c>
       <c r="C105" s="18"/>
-      <c r="E105" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="F105" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="16">
         <v>102</v>
       </c>
@@ -2629,7 +2653,7 @@
       </c>
       <c r="C106" s="18"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" s="16">
         <v>103</v>
       </c>
@@ -2638,7 +2662,7 @@
       </c>
       <c r="C107" s="18"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108" s="16">
         <v>104</v>
       </c>
@@ -2646,11 +2670,11 @@
         <v>27</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="F108" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="G108" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="16">
         <v>105</v>
       </c>
@@ -2658,11 +2682,11 @@
         <v>185</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="E109" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="F109" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="16">
         <v>106</v>
       </c>
@@ -2670,11 +2694,11 @@
         <v>110</v>
       </c>
       <c r="C110" s="18"/>
-      <c r="G110" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="H110" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="16">
         <v>107</v>
       </c>
@@ -2683,7 +2707,7 @@
       </c>
       <c r="C111" s="18"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:9">
       <c r="A112" s="16">
         <v>108</v>
       </c>
@@ -2691,14 +2715,14 @@
         <v>292</v>
       </c>
       <c r="C112" s="18"/>
-      <c r="D112" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="E112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="16">
         <v>109</v>
       </c>
@@ -2706,11 +2730,11 @@
         <v>187</v>
       </c>
       <c r="C113" s="18"/>
-      <c r="F113" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="G113" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="16">
         <v>110</v>
       </c>
@@ -2719,7 +2743,7 @@
       </c>
       <c r="C114" s="18"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:9">
       <c r="A115" s="16">
         <v>111</v>
       </c>
@@ -2727,14 +2751,14 @@
         <v>160</v>
       </c>
       <c r="C115" s="18"/>
-      <c r="D115" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="E115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="16">
         <v>112</v>
       </c>
@@ -2743,7 +2767,7 @@
       </c>
       <c r="C116" s="18"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:9">
       <c r="A117" s="16">
         <v>113</v>
       </c>
@@ -2751,11 +2775,11 @@
         <v>131</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="E117" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="16">
         <v>114</v>
       </c>
@@ -2763,11 +2787,11 @@
         <v>223</v>
       </c>
       <c r="C118" s="18"/>
-      <c r="E118" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="F118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="16">
         <v>115</v>
       </c>
@@ -2775,11 +2799,11 @@
         <v>278</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="H119" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="16">
         <v>116</v>
       </c>
@@ -2788,7 +2812,7 @@
       </c>
       <c r="C120" s="18"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:9">
       <c r="A121" s="16">
         <v>117</v>
       </c>
@@ -2797,7 +2821,7 @@
       </c>
       <c r="C121" s="18"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:9">
       <c r="A122" s="16">
         <v>118</v>
       </c>
@@ -2806,7 +2830,7 @@
       </c>
       <c r="C122" s="18"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:9">
       <c r="A123" s="16">
         <v>119</v>
       </c>
@@ -2815,7 +2839,7 @@
       </c>
       <c r="C123" s="18"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:9">
       <c r="A124" s="16">
         <v>120</v>
       </c>
@@ -2824,7 +2848,7 @@
       </c>
       <c r="C124" s="18"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:9">
       <c r="A125" s="16">
         <v>121</v>
       </c>
@@ -2832,11 +2856,11 @@
         <v>277</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="E125" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="F125" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="16">
         <v>122</v>
       </c>
@@ -2844,14 +2868,14 @@
         <v>201</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E126" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="F126" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="16">
         <v>123</v>
       </c>
@@ -2860,7 +2884,7 @@
       </c>
       <c r="C127" s="18"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:9">
       <c r="A128" s="16">
         <v>124</v>
       </c>
@@ -2869,7 +2893,7 @@
       </c>
       <c r="C128" s="18"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:9">
       <c r="A129" s="16">
         <v>125</v>
       </c>
@@ -2877,11 +2901,11 @@
         <v>216</v>
       </c>
       <c r="C129" s="18"/>
-      <c r="E129" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="F129" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="16">
         <v>126</v>
       </c>
@@ -2890,7 +2914,7 @@
       </c>
       <c r="C130" s="18"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:9">
       <c r="A131" s="16">
         <v>127</v>
       </c>
@@ -2898,14 +2922,14 @@
         <v>19</v>
       </c>
       <c r="C131" s="18"/>
-      <c r="E131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="F131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="16">
         <v>128</v>
       </c>
@@ -2913,11 +2937,11 @@
         <v>88</v>
       </c>
       <c r="C132" s="18"/>
-      <c r="F132" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="G132" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="16">
         <v>129</v>
       </c>
@@ -2926,7 +2950,7 @@
       </c>
       <c r="C133" s="18"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:9">
       <c r="A134" s="16">
         <v>130</v>
       </c>
@@ -2934,11 +2958,11 @@
         <v>102</v>
       </c>
       <c r="C134" s="18"/>
-      <c r="H134" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="16">
         <v>131</v>
       </c>
@@ -2946,11 +2970,11 @@
         <v>8</v>
       </c>
       <c r="C135" s="18"/>
-      <c r="H135" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="16">
         <v>132</v>
       </c>
@@ -2958,11 +2982,11 @@
         <v>263</v>
       </c>
       <c r="C136" s="18"/>
-      <c r="E136" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="F136" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="16">
         <v>133</v>
       </c>
@@ -2971,7 +2995,7 @@
       </c>
       <c r="C137" s="18"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:9">
       <c r="A138" s="16">
         <v>134</v>
       </c>
@@ -2979,11 +3003,11 @@
         <v>226</v>
       </c>
       <c r="C138" s="18"/>
-      <c r="F138" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="G138" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="16">
         <v>135</v>
       </c>
@@ -2991,14 +3015,14 @@
         <v>175</v>
       </c>
       <c r="C139" s="18"/>
-      <c r="D139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="E139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="16">
         <v>136</v>
       </c>
@@ -3006,11 +3030,11 @@
         <v>108</v>
       </c>
       <c r="C140" s="18"/>
-      <c r="E140" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="F140" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="16">
         <v>137</v>
       </c>
@@ -3018,14 +3042,14 @@
         <v>82</v>
       </c>
       <c r="C141" s="18"/>
-      <c r="E141" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="F141" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="16">
         <v>138</v>
       </c>
@@ -3034,7 +3058,7 @@
       </c>
       <c r="C142" s="18"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:9">
       <c r="A143" s="16">
         <v>139</v>
       </c>
@@ -3042,14 +3066,14 @@
         <v>220</v>
       </c>
       <c r="C143" s="18"/>
-      <c r="E143" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="F143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="16">
         <v>140</v>
       </c>
@@ -3057,11 +3081,11 @@
         <v>35</v>
       </c>
       <c r="C144" s="18"/>
-      <c r="H144" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="16">
         <v>141</v>
       </c>
@@ -3070,7 +3094,7 @@
       </c>
       <c r="C145" s="18"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:9">
       <c r="A146" s="16">
         <v>142</v>
       </c>
@@ -3079,7 +3103,7 @@
       </c>
       <c r="C146" s="18"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:9">
       <c r="A147" s="16">
         <v>143</v>
       </c>
@@ -3087,11 +3111,11 @@
         <v>11</v>
       </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="E147" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="16">
         <v>144</v>
       </c>
@@ -3099,11 +3123,11 @@
         <v>298</v>
       </c>
       <c r="C148" s="18"/>
-      <c r="H148" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="16">
         <v>145</v>
       </c>
@@ -3111,11 +3135,11 @@
         <v>285</v>
       </c>
       <c r="C149" s="18"/>
-      <c r="G149" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="H149" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="16">
         <v>146</v>
       </c>
@@ -3124,7 +3148,7 @@
       </c>
       <c r="C150" s="18"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:9">
       <c r="A151" s="16">
         <v>147</v>
       </c>
@@ -3133,7 +3157,7 @@
       </c>
       <c r="C151" s="18"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:9">
       <c r="A152" s="16">
         <v>148</v>
       </c>
@@ -3142,7 +3166,7 @@
       </c>
       <c r="C152" s="18"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:9">
       <c r="A153" s="16">
         <v>149</v>
       </c>
@@ -3151,7 +3175,7 @@
       </c>
       <c r="C153" s="18"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:9">
       <c r="A154" s="16">
         <v>150</v>
       </c>
@@ -3159,14 +3183,14 @@
         <v>264</v>
       </c>
       <c r="C154" s="18"/>
-      <c r="D154" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="F154" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="16">
         <v>151</v>
       </c>
@@ -3174,11 +3198,11 @@
         <v>28</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="F155" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="G155" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="16">
         <v>152</v>
       </c>
@@ -3186,11 +3210,11 @@
         <v>153</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="E156" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="16">
         <v>153</v>
       </c>
@@ -3198,11 +3222,11 @@
         <v>60</v>
       </c>
       <c r="C157" s="18"/>
-      <c r="D157" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="E157" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="16">
         <v>154</v>
       </c>
@@ -3210,11 +3234,11 @@
         <v>143</v>
       </c>
       <c r="C158" s="18"/>
-      <c r="F158" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="G158" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="16">
         <v>155</v>
       </c>
@@ -3222,14 +3246,14 @@
         <v>118</v>
       </c>
       <c r="C159" s="18"/>
-      <c r="E159" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F159" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="G159" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="16">
         <v>156</v>
       </c>
@@ -3237,11 +3261,11 @@
         <v>40</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="H160" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="16">
         <v>157</v>
       </c>
@@ -3249,14 +3273,14 @@
         <v>243</v>
       </c>
       <c r="C161" s="18"/>
-      <c r="D161" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="E161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="16">
         <v>158</v>
       </c>
@@ -3264,11 +3288,11 @@
         <v>214</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="F162" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="G162" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="16">
         <v>159</v>
       </c>
@@ -3276,11 +3300,11 @@
         <v>42</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="F163" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="G163" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="16">
         <v>160</v>
       </c>
@@ -3289,7 +3313,7 @@
       </c>
       <c r="C164" s="18"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:9">
       <c r="A165" s="16">
         <v>161</v>
       </c>
@@ -3298,7 +3322,7 @@
       </c>
       <c r="C165" s="18"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:9">
       <c r="A166" s="16">
         <v>162</v>
       </c>
@@ -3307,7 +3331,7 @@
       </c>
       <c r="C166" s="18"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:9">
       <c r="A167" s="16">
         <v>163</v>
       </c>
@@ -3315,11 +3339,11 @@
         <v>288</v>
       </c>
       <c r="C167" s="18"/>
-      <c r="H167" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="16">
         <v>164</v>
       </c>
@@ -3327,11 +3351,11 @@
         <v>8</v>
       </c>
       <c r="C168" s="18"/>
-      <c r="F168" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="G168" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="16">
         <v>165</v>
       </c>
@@ -3339,11 +3363,11 @@
         <v>106</v>
       </c>
       <c r="C169" s="18"/>
-      <c r="F169" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="G169" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="16">
         <v>166</v>
       </c>
@@ -3352,7 +3376,7 @@
       </c>
       <c r="C170" s="18"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:9">
       <c r="A171" s="16">
         <v>167</v>
       </c>
@@ -3360,11 +3384,11 @@
         <v>132</v>
       </c>
       <c r="C171" s="18"/>
-      <c r="D171" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="E171" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="16">
         <v>168</v>
       </c>
@@ -3372,11 +3396,11 @@
         <v>140</v>
       </c>
       <c r="C172" s="18"/>
-      <c r="D172" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="E172" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="16">
         <v>169</v>
       </c>
@@ -3384,11 +3408,11 @@
         <v>190</v>
       </c>
       <c r="C173" s="18"/>
-      <c r="H173" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="16">
         <v>170</v>
       </c>
@@ -3397,7 +3421,7 @@
       </c>
       <c r="C174" s="18"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:9">
       <c r="A175" s="16">
         <v>171</v>
       </c>
@@ -3405,11 +3429,11 @@
         <v>26</v>
       </c>
       <c r="C175" s="18"/>
-      <c r="F175" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="G175" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="16">
         <v>172</v>
       </c>
@@ -3418,7 +3442,7 @@
       </c>
       <c r="C176" s="18"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:9">
       <c r="A177" s="16">
         <v>173</v>
       </c>
@@ -3426,14 +3450,14 @@
         <v>117</v>
       </c>
       <c r="C177" s="18"/>
-      <c r="F177" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="G177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="16">
         <v>174</v>
       </c>
@@ -3441,11 +3465,11 @@
         <v>91</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="E178" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="16">
         <v>175</v>
       </c>
@@ -3454,7 +3478,7 @@
       </c>
       <c r="C179" s="18"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:9">
       <c r="A180" s="16">
         <v>176</v>
       </c>
@@ -3462,14 +3486,14 @@
         <v>76</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="E180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="16">
         <v>177</v>
       </c>
@@ -3477,11 +3501,11 @@
         <v>207</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="F181" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="G181" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="16">
         <v>178</v>
       </c>
@@ -3489,11 +3513,11 @@
         <v>54</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="H182" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="16">
         <v>179</v>
       </c>
@@ -3501,14 +3525,14 @@
         <v>84</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="E183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="16">
         <v>180</v>
       </c>
@@ -3516,14 +3540,14 @@
         <v>254</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="E184" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="16">
         <v>181</v>
       </c>
@@ -3532,7 +3556,7 @@
       </c>
       <c r="C185" s="18"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:9">
       <c r="A186" s="16">
         <v>182</v>
       </c>
@@ -3540,11 +3564,11 @@
         <v>295</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="G186" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="H186" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="16">
         <v>183</v>
       </c>
@@ -3552,11 +3576,11 @@
         <v>135</v>
       </c>
       <c r="C187" s="18"/>
-      <c r="H187" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="16">
         <v>184</v>
       </c>
@@ -3564,11 +3588,11 @@
         <v>188</v>
       </c>
       <c r="C188" s="18"/>
-      <c r="D188" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="E188" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="16">
         <v>185</v>
       </c>
@@ -3576,11 +3600,11 @@
         <v>168</v>
       </c>
       <c r="C189" s="18"/>
-      <c r="F189" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="G189" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="16">
         <v>186</v>
       </c>
@@ -3588,11 +3612,11 @@
         <v>242</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="F190" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="G190" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="16">
         <v>187</v>
       </c>
@@ -3600,11 +3624,11 @@
         <v>24</v>
       </c>
       <c r="C191" s="18"/>
-      <c r="D191" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="E191" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="16">
         <v>188</v>
       </c>
@@ -3613,7 +3637,7 @@
       </c>
       <c r="C192" s="18"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:9">
       <c r="A193" s="16">
         <v>189</v>
       </c>
@@ -3621,11 +3645,11 @@
         <v>219</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="E193" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="F193" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="16">
         <v>190</v>
       </c>
@@ -3633,17 +3657,17 @@
         <v>90</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="E194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="16">
         <v>191</v>
       </c>
@@ -3651,9 +3675,9 @@
         <v>224</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="16">
         <v>192</v>
       </c>
@@ -3662,7 +3686,7 @@
       </c>
       <c r="C196" s="18"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:9">
       <c r="A197" s="16">
         <v>193</v>
       </c>
@@ -3670,11 +3694,11 @@
         <v>79</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="F197" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="G197" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="16">
         <v>194</v>
       </c>
@@ -3683,7 +3707,7 @@
       </c>
       <c r="C198" s="18"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:9">
       <c r="A199" s="16">
         <v>195</v>
       </c>
@@ -3691,11 +3715,11 @@
         <v>112</v>
       </c>
       <c r="C199" s="18"/>
-      <c r="H199" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="16">
         <v>196</v>
       </c>
@@ -3703,14 +3727,14 @@
         <v>248</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="E200" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F200" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="G200" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="16">
         <v>197</v>
       </c>
@@ -3718,11 +3742,11 @@
         <v>195</v>
       </c>
       <c r="C201" s="18"/>
-      <c r="D201" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="E201" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="16">
         <v>198</v>
       </c>
@@ -3730,11 +3754,11 @@
         <v>104</v>
       </c>
       <c r="C202" s="18"/>
-      <c r="F202" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="G202" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="16">
         <v>199</v>
       </c>
@@ -3742,11 +3766,11 @@
         <v>87</v>
       </c>
       <c r="C203" s="18"/>
-      <c r="F203" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="G203" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="16">
         <v>200</v>
       </c>
@@ -3755,7 +3779,7 @@
       </c>
       <c r="C204" s="18"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:9">
       <c r="A205" s="16">
         <v>201</v>
       </c>
@@ -3763,11 +3787,11 @@
         <v>78</v>
       </c>
       <c r="C205" s="18"/>
-      <c r="F205" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="G205" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="16">
         <v>202</v>
       </c>
@@ -3775,14 +3799,14 @@
         <v>282</v>
       </c>
       <c r="C206" s="18"/>
-      <c r="F206" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="G206" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="16">
         <v>203</v>
       </c>
@@ -3790,14 +3814,14 @@
         <v>126</v>
       </c>
       <c r="C207" s="18"/>
-      <c r="F207" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="G207" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="16">
         <v>204</v>
       </c>
@@ -3805,14 +3829,14 @@
         <v>113</v>
       </c>
       <c r="C208" s="18"/>
-      <c r="F208" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H208" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="G208" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="16">
         <v>205</v>
       </c>
@@ -3820,11 +3844,11 @@
         <v>127</v>
       </c>
       <c r="C209" s="18"/>
-      <c r="F209" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="G209" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="16">
         <v>206</v>
       </c>
@@ -3832,11 +3856,11 @@
         <v>144</v>
       </c>
       <c r="C210" s="18"/>
-      <c r="F210" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="G210" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="16">
         <v>207</v>
       </c>
@@ -3845,7 +3869,7 @@
       </c>
       <c r="C211" s="18"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:9">
       <c r="A212" s="16">
         <v>208</v>
       </c>
@@ -3853,14 +3877,14 @@
         <v>266</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="F212" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="G212" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="16">
         <v>209</v>
       </c>
@@ -3869,7 +3893,7 @@
       </c>
       <c r="C213" s="18"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:9">
       <c r="A214" s="16">
         <v>210</v>
       </c>
@@ -3877,14 +3901,14 @@
         <v>125</v>
       </c>
       <c r="C214" s="18"/>
-      <c r="F214" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="G214" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="16">
         <v>211</v>
       </c>
@@ -3892,11 +3916,11 @@
         <v>103</v>
       </c>
       <c r="C215" s="18"/>
-      <c r="H215" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="16">
         <v>212</v>
       </c>
@@ -3904,11 +3928,11 @@
         <v>124</v>
       </c>
       <c r="C216" s="18"/>
-      <c r="H216" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="16">
         <v>213</v>
       </c>
@@ -3917,7 +3941,7 @@
       </c>
       <c r="C217" s="18"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:9">
       <c r="A218" s="16">
         <v>214</v>
       </c>
@@ -3925,11 +3949,11 @@
         <v>57</v>
       </c>
       <c r="C218" s="18"/>
-      <c r="G218" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="H218" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="16">
         <v>215</v>
       </c>
@@ -3937,14 +3961,14 @@
         <v>250</v>
       </c>
       <c r="C219" s="18"/>
-      <c r="D219" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E219" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="F219" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="16">
         <v>216</v>
       </c>
@@ -3953,7 +3977,7 @@
       </c>
       <c r="C220" s="18"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:9">
       <c r="A221" s="16">
         <v>217</v>
       </c>
@@ -3962,7 +3986,7 @@
       </c>
       <c r="C221" s="18"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:9">
       <c r="A222" s="16">
         <v>218</v>
       </c>
@@ -3971,7 +3995,7 @@
       </c>
       <c r="C222" s="18"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:9">
       <c r="A223" s="16">
         <v>219</v>
       </c>
@@ -3980,7 +4004,7 @@
       </c>
       <c r="C223" s="18"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:9">
       <c r="A224" s="16">
         <v>220</v>
       </c>
@@ -3989,7 +4013,7 @@
       </c>
       <c r="C224" s="18"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:9">
       <c r="A225" s="16">
         <v>221</v>
       </c>
@@ -3997,11 +4021,11 @@
         <v>95</v>
       </c>
       <c r="C225" s="18"/>
-      <c r="F225" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="G225" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="16">
         <v>222</v>
       </c>
@@ -4009,11 +4033,11 @@
         <v>111</v>
       </c>
       <c r="C226" s="18"/>
-      <c r="H226" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="16">
         <v>223</v>
       </c>
@@ -4022,7 +4046,7 @@
       </c>
       <c r="C227" s="18"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:9">
       <c r="A228" s="16">
         <v>224</v>
       </c>
@@ -4030,11 +4054,11 @@
         <v>199</v>
       </c>
       <c r="C228" s="18"/>
-      <c r="F228" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="G228" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="16">
         <v>225</v>
       </c>
@@ -4043,7 +4067,7 @@
       </c>
       <c r="C229" s="18"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:9">
       <c r="A230" s="16">
         <v>226</v>
       </c>
@@ -4052,7 +4076,7 @@
       </c>
       <c r="C230" s="18"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:9">
       <c r="A231" s="16">
         <v>227</v>
       </c>
@@ -4060,11 +4084,11 @@
         <v>70</v>
       </c>
       <c r="C231" s="18"/>
-      <c r="F231" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="G231" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="16">
         <v>228</v>
       </c>
@@ -4072,11 +4096,11 @@
         <v>64</v>
       </c>
       <c r="C232" s="18"/>
-      <c r="H232" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="16">
         <v>229</v>
       </c>
@@ -4084,11 +4108,11 @@
         <v>139</v>
       </c>
       <c r="C233" s="18"/>
-      <c r="D233" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="E233" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="16">
         <v>230</v>
       </c>
@@ -4096,14 +4120,14 @@
         <v>13</v>
       </c>
       <c r="C234" s="18"/>
-      <c r="D234" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="E234" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="16">
         <v>231</v>
       </c>
@@ -4111,11 +4135,11 @@
         <v>70</v>
       </c>
       <c r="C235" s="18"/>
-      <c r="F235" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="G235" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="16">
         <v>232</v>
       </c>
@@ -4124,7 +4148,7 @@
       </c>
       <c r="C236" s="18"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:9">
       <c r="A237" s="16">
         <v>233</v>
       </c>
@@ -4133,7 +4157,7 @@
       </c>
       <c r="C237" s="18"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:9">
       <c r="A238" s="16">
         <v>234</v>
       </c>
@@ -4141,14 +4165,14 @@
         <v>262</v>
       </c>
       <c r="C238" s="18"/>
-      <c r="E238" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F238" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="G238" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="16">
         <v>235</v>
       </c>
@@ -4157,7 +4181,7 @@
       </c>
       <c r="C239" s="18"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:9">
       <c r="A240" s="16">
         <v>236</v>
       </c>
@@ -4165,14 +4189,14 @@
         <v>230</v>
       </c>
       <c r="C240" s="18"/>
-      <c r="E240" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F240" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="G240" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="16">
         <v>237</v>
       </c>
@@ -4180,11 +4204,11 @@
         <v>179</v>
       </c>
       <c r="C241" s="18"/>
-      <c r="F241" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="G241" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="16">
         <v>238</v>
       </c>
@@ -4192,17 +4216,17 @@
         <v>280</v>
       </c>
       <c r="C242" s="18"/>
-      <c r="D242" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G242" s="3" t="s">
+      <c r="E242" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H242" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="16">
         <v>239</v>
       </c>
@@ -4210,11 +4234,11 @@
         <v>200</v>
       </c>
       <c r="C243" s="18"/>
-      <c r="E243" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="F243" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="16">
         <v>240</v>
       </c>
@@ -4223,7 +4247,7 @@
       </c>
       <c r="C244" s="18"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:9">
       <c r="A245" s="16">
         <v>241</v>
       </c>
@@ -4232,7 +4256,7 @@
       </c>
       <c r="C245" s="18"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:9">
       <c r="A246" s="16">
         <v>242</v>
       </c>
@@ -4240,14 +4264,14 @@
         <v>69</v>
       </c>
       <c r="C246" s="18"/>
-      <c r="F246" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G246" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="H246" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="16">
         <v>243</v>
       </c>
@@ -4255,14 +4279,14 @@
         <v>119</v>
       </c>
       <c r="C247" s="18"/>
-      <c r="E247" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F247" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="G247" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="16">
         <v>244</v>
       </c>
@@ -4271,7 +4295,7 @@
       </c>
       <c r="C248" s="18"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:9">
       <c r="A249" s="16">
         <v>245</v>
       </c>
@@ -4279,11 +4303,11 @@
         <v>77</v>
       </c>
       <c r="C249" s="18"/>
-      <c r="F249" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="G249" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" s="16">
         <v>246</v>
       </c>
@@ -4292,7 +4316,7 @@
       </c>
       <c r="C250" s="18"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:9">
       <c r="A251" s="16">
         <v>247</v>
       </c>
@@ -4300,11 +4324,11 @@
         <v>155</v>
       </c>
       <c r="C251" s="18"/>
-      <c r="D251" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="E251" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" s="16">
         <v>248</v>
       </c>
@@ -4312,11 +4336,11 @@
         <v>291</v>
       </c>
       <c r="C252" s="18"/>
-      <c r="E252" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="F252" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" s="16">
         <v>249</v>
       </c>
@@ -4325,7 +4349,7 @@
       </c>
       <c r="C253" s="18"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:9">
       <c r="A254" s="16">
         <v>250</v>
       </c>
@@ -4333,11 +4357,11 @@
         <v>136</v>
       </c>
       <c r="C254" s="18"/>
-      <c r="H254" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="I254" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" s="16">
         <v>251</v>
       </c>
@@ -4346,7 +4370,7 @@
       </c>
       <c r="C255" s="18"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:9">
       <c r="A256" s="16">
         <v>252</v>
       </c>
@@ -4354,11 +4378,11 @@
         <v>206</v>
       </c>
       <c r="C256" s="18"/>
-      <c r="E256" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="F256" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" s="16">
         <v>253</v>
       </c>
@@ -4366,14 +4390,14 @@
         <v>290</v>
       </c>
       <c r="C257" s="18"/>
-      <c r="E257" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F257" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="G257" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" s="16">
         <v>254</v>
       </c>
@@ -4381,11 +4405,11 @@
         <v>142</v>
       </c>
       <c r="C258" s="18"/>
-      <c r="F258" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="G258" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" s="16">
         <v>255</v>
       </c>
@@ -4393,11 +4417,11 @@
         <v>94</v>
       </c>
       <c r="C259" s="18"/>
-      <c r="F259" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="G259" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" s="16">
         <v>256</v>
       </c>
@@ -4406,7 +4430,7 @@
       </c>
       <c r="C260" s="18"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:9">
       <c r="A261" s="16">
         <v>257</v>
       </c>
@@ -4415,7 +4439,7 @@
       </c>
       <c r="C261" s="18"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:9">
       <c r="A262" s="16">
         <v>258</v>
       </c>
@@ -4424,7 +4448,7 @@
       </c>
       <c r="C262" s="18"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:9">
       <c r="A263" s="16">
         <v>259</v>
       </c>
@@ -4433,7 +4457,7 @@
       </c>
       <c r="C263" s="18"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:9">
       <c r="A264" s="16">
         <v>260</v>
       </c>
@@ -4441,14 +4465,14 @@
         <v>244</v>
       </c>
       <c r="C264" s="18"/>
-      <c r="D264" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E264" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="F264" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" s="16">
         <v>261</v>
       </c>
@@ -4456,11 +4480,11 @@
         <v>192</v>
       </c>
       <c r="C265" s="18"/>
-      <c r="E265" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+      <c r="F265" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" s="16">
         <v>262</v>
       </c>
@@ -4469,7 +4493,7 @@
       </c>
       <c r="C266" s="18"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:9">
       <c r="A267" s="16">
         <v>263</v>
       </c>
@@ -4477,11 +4501,11 @@
         <v>283</v>
       </c>
       <c r="C267" s="18"/>
-      <c r="E267" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="F267" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" s="16">
         <v>264</v>
       </c>
@@ -4489,11 +4513,11 @@
         <v>269</v>
       </c>
       <c r="C268" s="18"/>
-      <c r="D268" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="E268" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" s="16">
         <v>265</v>
       </c>
@@ -4502,7 +4526,7 @@
       </c>
       <c r="C269" s="18"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:9">
       <c r="A270" s="16">
         <v>266</v>
       </c>
@@ -4510,11 +4534,11 @@
         <v>228</v>
       </c>
       <c r="C270" s="18"/>
-      <c r="H270" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="I270" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" s="16">
         <v>267</v>
       </c>
@@ -4523,7 +4547,7 @@
       </c>
       <c r="C271" s="18"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:9">
       <c r="A272" s="16">
         <v>268</v>
       </c>
@@ -4531,11 +4555,11 @@
         <v>194</v>
       </c>
       <c r="C272" s="18"/>
-      <c r="F272" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+      <c r="G272" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" s="16">
         <v>269</v>
       </c>
@@ -4544,7 +4568,7 @@
       </c>
       <c r="C273" s="18"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:9">
       <c r="A274" s="16">
         <v>270</v>
       </c>
@@ -4552,14 +4576,14 @@
         <v>232</v>
       </c>
       <c r="C274" s="18"/>
-      <c r="D274" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="E274" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" s="16">
         <v>271</v>
       </c>
@@ -4568,7 +4592,7 @@
       </c>
       <c r="C275" s="18"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:9">
       <c r="A276" s="16">
         <v>272</v>
       </c>
@@ -4576,11 +4600,11 @@
         <v>66</v>
       </c>
       <c r="C276" s="18"/>
-      <c r="E276" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="F276" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" s="16">
         <v>273</v>
       </c>
@@ -4589,7 +4613,7 @@
       </c>
       <c r="C277" s="18"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:9">
       <c r="A278" s="16">
         <v>274</v>
       </c>
@@ -4597,11 +4621,11 @@
         <v>183</v>
       </c>
       <c r="C278" s="18"/>
-      <c r="F278" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="G278" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" s="16">
         <v>275</v>
       </c>
@@ -4609,11 +4633,11 @@
         <v>276</v>
       </c>
       <c r="C279" s="18"/>
-      <c r="D279" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="E279" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" s="16">
         <v>276</v>
       </c>
@@ -4621,11 +4645,11 @@
         <v>221</v>
       </c>
       <c r="C280" s="18"/>
-      <c r="F280" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="G280" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" s="16">
         <v>277</v>
       </c>
@@ -4633,14 +4657,14 @@
         <v>272</v>
       </c>
       <c r="C281" s="18"/>
-      <c r="D281" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G281" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="E281" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" s="16">
         <v>278</v>
       </c>
@@ -4648,11 +4672,11 @@
         <v>63</v>
       </c>
       <c r="C282" s="18"/>
-      <c r="H282" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="I282" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" s="16">
         <v>279</v>
       </c>
@@ -4661,7 +4685,7 @@
       </c>
       <c r="C283" s="18"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:9">
       <c r="A284" s="16">
         <v>280</v>
       </c>
@@ -4669,11 +4693,11 @@
         <v>260</v>
       </c>
       <c r="C284" s="18"/>
-      <c r="D284" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="E284" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" s="16">
         <v>281</v>
       </c>
@@ -4682,7 +4706,7 @@
       </c>
       <c r="C285" s="18"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:9">
       <c r="A286" s="16">
         <v>282</v>
       </c>
@@ -4691,7 +4715,7 @@
       </c>
       <c r="C286" s="18"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:9">
       <c r="A287" s="16">
         <v>283</v>
       </c>
@@ -4699,11 +4723,11 @@
         <v>93</v>
       </c>
       <c r="C287" s="18"/>
-      <c r="F287" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="G287" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" s="16">
         <v>284</v>
       </c>
@@ -4712,7 +4736,7 @@
       </c>
       <c r="C288" s="18"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:9">
       <c r="A289" s="16">
         <v>285</v>
       </c>
@@ -4720,14 +4744,14 @@
         <v>279</v>
       </c>
       <c r="C289" s="18"/>
-      <c r="D289" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="E289" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" s="16">
         <v>286</v>
       </c>
@@ -4735,11 +4759,11 @@
         <v>98</v>
       </c>
       <c r="C290" s="18"/>
-      <c r="D290" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="E290" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" s="16">
         <v>287</v>
       </c>
@@ -4748,7 +4772,7 @@
       </c>
       <c r="C291" s="18"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:9">
       <c r="A292" s="16">
         <v>288</v>
       </c>
@@ -4757,7 +4781,7 @@
       </c>
       <c r="C292" s="18"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:9">
       <c r="A293" s="16">
         <v>289</v>
       </c>
@@ -4765,11 +4789,11 @@
         <v>186</v>
       </c>
       <c r="C293" s="18"/>
-      <c r="H293" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="I293" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" s="16">
         <v>290</v>
       </c>
@@ -4777,11 +4801,11 @@
         <v>171</v>
       </c>
       <c r="C294" s="18"/>
-      <c r="D294" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="E294" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" s="16">
         <v>291</v>
       </c>
@@ -4789,14 +4813,14 @@
         <v>41</v>
       </c>
       <c r="C295" s="18"/>
-      <c r="F295" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="G295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" s="16">
         <v>292</v>
       </c>
@@ -4805,7 +4829,7 @@
       </c>
       <c r="C296" s="18"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:9">
       <c r="A297" s="16">
         <v>293</v>
       </c>
@@ -4813,11 +4837,11 @@
         <v>169</v>
       </c>
       <c r="C297" s="18"/>
-      <c r="E297" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="F297" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" s="16">
         <v>294</v>
       </c>
@@ -4825,11 +4849,11 @@
         <v>14</v>
       </c>
       <c r="C298" s="18"/>
-      <c r="G298" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="H298" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" s="16">
         <v>295</v>
       </c>
@@ -4838,7 +4862,7 @@
       </c>
       <c r="C299" s="18"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:9">
       <c r="A300" s="16">
         <v>296</v>
       </c>
@@ -4846,11 +4870,11 @@
         <v>105</v>
       </c>
       <c r="C300" s="18"/>
-      <c r="F300" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="G300" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" s="16">
         <v>297</v>
       </c>
@@ -4858,11 +4882,11 @@
         <v>85</v>
       </c>
       <c r="C301" s="18"/>
-      <c r="D301" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="E301" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" s="16">
         <v>298</v>
       </c>
@@ -4870,11 +4894,11 @@
         <v>82</v>
       </c>
       <c r="C302" s="18"/>
-      <c r="D302" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="E302" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" s="16">
         <v>299</v>
       </c>
@@ -4882,11 +4906,11 @@
         <v>65</v>
       </c>
       <c r="C303" s="18"/>
-      <c r="H303" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="I303" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" s="16">
         <v>300</v>
       </c>
@@ -4894,10 +4918,10 @@
         <v>115</v>
       </c>
       <c r="C304" s="18"/>
-      <c r="F304" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H304" s="3" t="s">
+      <c r="G304" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I304" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9421B32B-757D-4F81-9A10-76A27872DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E2B11-DD87-4DBB-809D-56D0A21B7CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="313">
   <si>
     <t>Status</t>
   </si>
@@ -977,6 +977,18 @@
   </si>
   <si>
     <t>Again(MUST)</t>
+  </si>
+  <si>
+    <t>Again(must)</t>
+  </si>
+  <si>
+    <t>New Concept</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Optimal BST DP</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1720,7 +1732,9 @@
       <c r="B25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
@@ -1735,10 +1749,12 @@
       <c r="A26" s="16">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1766,9 @@
       <c r="B27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="16">
@@ -1759,7 +1777,9 @@
       <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1794,12 @@
       <c r="B29" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>6</v>
       </c>
@@ -1786,10 +1811,12 @@
       <c r="A30" s="16">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1801,7 +1828,9 @@
       <c r="B31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="I31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1842,12 @@
       <c r="B32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" t="s">
+        <v>311</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
       </c>

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E2B11-DD87-4DBB-809D-56D0A21B7CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3919C4-B03A-4E0D-9A1D-042D266CDC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="313">
   <si>
     <t>Status</t>
   </si>
@@ -1416,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1856,10 +1856,12 @@
       <c r="A33" s="16">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="18" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="16">
@@ -1868,7 +1870,9 @@
       <c r="B34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="G34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1884,9 @@
       <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16">
@@ -1889,7 +1895,9 @@
       <c r="B36" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
       </c>

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3919C4-B03A-4E0D-9A1D-042D266CDC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C0C7C-D910-42A9-8DCB-FE3E250FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="313">
   <si>
     <t>Status</t>
   </si>
@@ -1416,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1939,7 +1939,9 @@
       <c r="B40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="16">
@@ -1957,10 +1959,12 @@
       <c r="A42" s="16">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16">
@@ -1993,7 +1997,9 @@
       <c r="B45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2014,9 @@
       <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2028,9 @@
       <c r="B47" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2054,9 @@
       <c r="B49" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="16">
@@ -2053,7 +2065,9 @@
       <c r="B50" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
       </c>

--- a/LeetCode/Practice.xlsx
+++ b/LeetCode/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Competetive_Programming\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C0C7C-D910-42A9-8DCB-FE3E250FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5761C275-0FD0-4C82-9AEC-89BBDB613232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="314">
   <si>
     <t>Status</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>Optimal BST DP</t>
+  </si>
+  <si>
+    <t>See</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1909,7 +1912,9 @@
       <c r="B37" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="18" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="16">
@@ -1918,7 +1923,9 @@
       <c r="B38" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="16">
